--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1807.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1807.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.150051324868187</v>
+        <v>0.8579124808311462</v>
       </c>
       <c r="B1">
-        <v>2.291961000903215</v>
+        <v>1.674988985061646</v>
       </c>
       <c r="C1">
-        <v>3.819253541230642</v>
+        <v>6.179018974304199</v>
       </c>
       <c r="D1">
-        <v>3.187408426270893</v>
+        <v>1.887541532516479</v>
       </c>
       <c r="E1">
-        <v>1.175236236417652</v>
+        <v>1.142337441444397</v>
       </c>
     </row>
   </sheetData>
